--- a/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
+++ b/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="自准法测量三棱镜顶角" sheetId="1" r:id="rId1"/>
     <sheet name="反射法测量三棱镜顶角" sheetId="2" r:id="rId2"/>
+    <sheet name="棱镜的最小偏向角" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
   <si>
     <t>自准法测量三棱镜顶角</t>
   </si>
@@ -41,16 +42,25 @@
   <si>
     <t>反射法测量三棱镜顶角</t>
   </si>
+  <si>
+    <t>棱镜最小偏向角测量</t>
+  </si>
+  <si>
+    <t>有棱镜</t>
+  </si>
+  <si>
+    <t>无棱镜</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -66,19 +76,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -88,7 +106,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,106 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,8 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,49 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,133 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,11 +450,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,183 +547,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -686,9 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
@@ -1021,224 +1034,224 @@
   <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>77</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>257</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>197</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>17</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>77</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>257</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <v>197</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
         <v>77</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>257</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>197</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>17</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>77</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
         <v>257</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
         <v>197</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>36</v>
       </c>
     </row>
@@ -1261,284 +1274,284 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1024" width="7.83333333333333" style="1"/>
+    <col min="1" max="1024" width="7.83333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>83</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>263</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>203</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>83</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>263</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <v>203</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>23</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
         <v>83</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>263</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>203</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>23</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>83</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
         <v>263</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
         <v>203</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>23</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
         <v>83</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
         <v>263</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
         <v>203</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
         <v>23</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1555,4 +1568,98 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>318</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
+++ b/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t>自准法测量三棱镜顶角</t>
   </si>
@@ -46,10 +46,28 @@
     <t>棱镜最小偏向角测量</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
     <t>有棱镜</t>
   </si>
   <si>
+    <t>黄色</t>
+  </si>
+  <si>
     <t>无棱镜</t>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>黄色1</t>
+  </si>
+  <si>
+    <t>黄色2</t>
   </si>
 </sst>
 </file>
@@ -1573,23 +1591,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1600,10 +1619,13 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1614,8 +1636,11 @@
       <c r="D3" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1626,10 +1651,11 @@
       <c r="D4" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1640,8 +1666,9 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1652,12 +1679,258 @@
       <c r="D6" s="2">
         <v>21</v>
       </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>318</v>
+      </c>
+      <c r="D10" s="2">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>197</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>318</v>
+      </c>
+      <c r="D14" s="2">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>196</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>318</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>196</v>
+      </c>
+      <c r="D19" s="2">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>318</v>
+      </c>
+      <c r="D22" s="2">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
+++ b/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="自准法测量三棱镜顶角" sheetId="1" r:id="rId1"/>
     <sheet name="反射法测量三棱镜顶角" sheetId="2" r:id="rId2"/>
-    <sheet name="棱镜的最小偏向角" sheetId="3" r:id="rId3"/>
+    <sheet name="棱镜的最小偏向角测量" sheetId="3" r:id="rId3"/>
+    <sheet name="光栅常数测量" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
   <si>
     <t>自准法测量三棱镜顶角</t>
   </si>
@@ -68,6 +69,9 @@
   </si>
   <si>
     <t>黄色2</t>
+  </si>
+  <si>
+    <t>光栅常数测量</t>
   </si>
 </sst>
 </file>
@@ -705,17 +709,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1043,235 +1056,253 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
         <v>77</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
         <v>257</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
         <v>197</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
         <v>77</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
         <v>257</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
         <v>197</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
         <v>17</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
         <v>77</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
         <v>257</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
         <v>197</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
         <v>17</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8">
         <v>77</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
         <v>257</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
         <v>197</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
         <v>17</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>36</v>
       </c>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1293,283 +1324,283 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C16" sqref="C16:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1024" width="7.83333333333333" style="3"/>
+    <col min="1" max="1024" width="7.83333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8">
         <v>83</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
         <v>263</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
         <v>203</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>23</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
         <v>83</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
         <v>263</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
         <v>203</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
         <v>83</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
         <v>263</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
         <v>203</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
         <v>23</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8">
         <v>83</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
         <v>263</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
         <v>203</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
         <v>23</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="A19" s="7">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8">
         <v>83</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
         <v>263</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
         <v>203</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8">
         <v>23</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>15</v>
       </c>
     </row>
@@ -1593,325 +1624,325 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>196</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>49</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>138</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>20</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>318</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>21</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>200</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>19</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <v>138</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>23</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>318</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>23</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
         <v>197</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>138</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>23</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>318</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>23</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>196</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>49</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
         <v>138</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>23</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>318</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>23</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
         <v>196</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
         <v>16</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>48</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
         <v>138</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>23</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
         <v>318</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>23</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1935,4 +1966,54 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
+++ b/Physics-Experiment/实验数据/实验数据-2020-11-03/分光计实验数据.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
   <si>
     <t>自准法测量三棱镜顶角</t>
   </si>
@@ -73,16 +73,31 @@
   <si>
     <t>光栅常数测量</t>
   </si>
+  <si>
+    <t>条纹级数</t>
+  </si>
+  <si>
+    <t>主极大</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>第+1级</t>
+  </si>
+  <si>
+    <t>第-1级</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -98,17 +113,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -119,31 +134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +144,28 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,21 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +195,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,50 +263,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,25 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,151 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,21 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -498,9 +498,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,37 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,151 +545,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -721,12 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
@@ -1065,241 +1071,241 @@
   <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>77</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>33</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>257</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>197</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>35</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>33</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>77</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>33</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>257</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>30</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <v>197</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>35</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>35</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
         <v>77</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>33</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>257</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>30</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>197</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>35</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>17</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>36</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>77</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>33</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
         <v>257</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>34</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
         <v>197</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>35</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>36</v>
       </c>
       <c r="E18" s="1"/>
@@ -1329,278 +1335,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81666666666667" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1024" width="7.83333333333333" style="2"/>
+    <col min="1" max="1024" width="7.83333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
         <v>83</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
         <v>263</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
         <v>203</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5">
         <v>23</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>83</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>263</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <v>203</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
         <v>83</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
         <v>263</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
         <v>203</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
         <v>23</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
         <v>83</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
         <v>263</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
         <v>203</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>23</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
         <v>83</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
         <v>263</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
         <v>203</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
         <v>23</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>15</v>
       </c>
     </row>
@@ -1631,7 +1637,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4"/>
@@ -1641,24 +1647,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
@@ -1667,13 +1673,13 @@
       <c r="D3" s="5">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5">
@@ -1685,10 +1691,10 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5">
@@ -1701,7 +1707,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5">
@@ -1713,10 +1719,10 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1725,13 +1731,13 @@
       <c r="D7" s="5">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
@@ -1743,10 +1749,10 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5">
@@ -1759,7 +1765,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5">
@@ -1771,10 +1777,10 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5">
@@ -1783,13 +1789,13 @@
       <c r="D11" s="5">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5">
@@ -1801,10 +1807,10 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="5">
@@ -1817,7 +1823,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5">
@@ -1829,10 +1835,10 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5">
@@ -1841,13 +1847,13 @@
       <c r="D15" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="5">
@@ -1859,10 +1865,10 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="5">
@@ -1875,7 +1881,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="5">
@@ -1887,10 +1893,10 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5">
@@ -1899,13 +1905,13 @@
       <c r="D19" s="5">
         <v>48</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5">
@@ -1917,10 +1923,10 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="5">
@@ -1933,7 +1939,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="5">
@@ -1971,49 +1977,337 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>318</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>153</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>333</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>123</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>303</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>157</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>119</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>299</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>158</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>338</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>298</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>158</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>338</v>
+      </c>
+      <c r="D18" s="3">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>118</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>298</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>